--- a/dags/operationalData/products.xlsx
+++ b/dags/operationalData/products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
   <si>
     <t>Product ID</t>
   </si>
@@ -31,7 +31,13 @@
     <t>Unit Cost</t>
   </si>
   <si>
+    <t>Is Valid</t>
+  </si>
+  <si>
     <t>Lenin Jeansshorts</t>
+  </si>
+  <si>
+    <t>valid</t>
   </si>
   <si>
     <t>Mr X Trousers</t>
@@ -266,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -276,6 +282,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -342,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -363,6 +374,9 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,13 +613,16 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4">
         <v>1.0</v>
@@ -620,13 +637,16 @@
         <f t="shared" ref="F2:F13" si="1">E2*0.7</f>
         <v>14</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -641,13 +661,16 @@
         <f t="shared" si="1"/>
         <v>13.3</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>1.0</v>
@@ -662,13 +685,16 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>2.0</v>
@@ -683,13 +709,16 @@
         <f t="shared" si="1"/>
         <v>15.4</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
         <v>5.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>2.0</v>
@@ -704,13 +733,16 @@
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>3.0</v>
@@ -725,13 +757,16 @@
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
         <v>7.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4">
         <v>3.0</v>
@@ -746,13 +781,16 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4">
         <v>3.0</v>
@@ -767,13 +805,16 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
         <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4">
         <v>4.0</v>
@@ -788,13 +829,16 @@
         <f t="shared" si="1"/>
         <v>27.3</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
         <v>10.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4">
         <v>4.0</v>
@@ -809,13 +853,16 @@
         <f t="shared" si="1"/>
         <v>4.9</v>
       </c>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3">
         <v>11.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4">
         <v>5.0</v>
@@ -830,13 +877,16 @@
         <f t="shared" si="1"/>
         <v>19.6</v>
       </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3">
         <v>12.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <v>5.0</v>
@@ -851,13 +901,16 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
+      <c r="G13" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3">
         <v>13.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4">
         <v>6.0</v>
@@ -872,13 +925,16 @@
         <f t="shared" ref="F14:F34" si="2">E14*0.8</f>
         <v>20</v>
       </c>
+      <c r="G14" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3">
         <v>14.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4">
         <v>6.0</v>
@@ -893,13 +949,16 @@
         <f t="shared" si="2"/>
         <v>18.6</v>
       </c>
+      <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3">
         <v>15.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4">
         <v>6.0</v>
@@ -914,13 +973,16 @@
         <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3">
         <v>16.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4">
         <v>7.0</v>
@@ -935,13 +997,16 @@
         <f t="shared" si="2"/>
         <v>7.56</v>
       </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3">
         <v>17.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4">
         <v>7.0</v>
@@ -956,13 +1021,16 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="G18" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3">
         <v>18.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4">
         <v>7.0</v>
@@ -977,13 +1045,16 @@
         <f t="shared" si="2"/>
         <v>20.4</v>
       </c>
+      <c r="G19" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3">
         <v>19.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4">
         <v>8.0</v>
@@ -998,13 +1069,16 @@
         <f t="shared" si="2"/>
         <v>7.36</v>
       </c>
+      <c r="G20" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3">
         <v>20.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>8.0</v>
@@ -1019,13 +1093,16 @@
         <f t="shared" si="2"/>
         <v>64.8</v>
       </c>
+      <c r="G21" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
         <v>21.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4">
         <v>8.0</v>
@@ -1038,6 +1115,9 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1046,7 +1126,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4">
         <v>9.0</v>
@@ -1061,13 +1141,16 @@
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
+      <c r="G23" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3">
         <v>23.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4">
         <v>9.0</v>
@@ -1082,13 +1165,16 @@
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
+      <c r="G24" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3">
         <v>24.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4">
         <v>10.0</v>
@@ -1103,13 +1189,16 @@
         <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
+      <c r="G25" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3">
         <v>25.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4">
         <v>11.0</v>
@@ -1124,13 +1213,16 @@
         <f t="shared" si="2"/>
         <v>11.2</v>
       </c>
+      <c r="G26" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3">
         <v>26.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4">
         <v>11.0</v>
@@ -1145,13 +1237,16 @@
         <f t="shared" si="2"/>
         <v>24.984</v>
       </c>
+      <c r="G27" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3">
         <v>27.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4">
         <v>11.0</v>
@@ -1166,13 +1261,16 @@
         <f t="shared" si="2"/>
         <v>35.12</v>
       </c>
+      <c r="G28" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3">
         <v>28.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" s="4">
         <v>12.0</v>
@@ -1187,13 +1285,16 @@
         <f t="shared" si="2"/>
         <v>36.48</v>
       </c>
+      <c r="G29" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3">
         <v>29.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" s="4">
         <v>12.0</v>
@@ -1208,13 +1309,16 @@
         <f t="shared" si="2"/>
         <v>99.032</v>
       </c>
+      <c r="G30" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3">
         <v>30.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" s="4">
         <v>13.0</v>
@@ -1229,13 +1333,16 @@
         <f t="shared" si="2"/>
         <v>20.712</v>
       </c>
+      <c r="G31" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3">
         <v>31.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" s="4">
         <v>14.0</v>
@@ -1250,13 +1357,16 @@
         <f t="shared" si="2"/>
         <v>6.8</v>
       </c>
+      <c r="G32" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3">
         <v>32.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" s="4">
         <v>14.0</v>
@@ -1271,13 +1381,16 @@
         <f t="shared" si="2"/>
         <v>15.2</v>
       </c>
+      <c r="G33" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3">
         <v>33.0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4">
         <v>15.0</v>
@@ -1292,13 +1405,16 @@
         <f t="shared" si="2"/>
         <v>20.4</v>
       </c>
+      <c r="G34" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3">
         <v>34.0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="4">
         <v>16.0</v>
@@ -1313,13 +1429,16 @@
         <f t="shared" ref="F35:F70" si="3">E35*0.9</f>
         <v>7.2</v>
       </c>
+      <c r="G35" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3">
         <v>35.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C36" s="4">
         <v>16.0</v>
@@ -1333,6 +1452,9 @@
       <c r="F36" s="6">
         <f t="shared" si="3"/>
         <v>5.4</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1340,7 +1462,7 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4">
         <v>17.0</v>
@@ -1354,6 +1476,9 @@
       <c r="F37" s="6">
         <f t="shared" si="3"/>
         <v>7.2</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1361,7 +1486,7 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4">
         <v>17.0</v>
@@ -1375,6 +1500,9 @@
       <c r="F38" s="6">
         <f t="shared" si="3"/>
         <v>3.6</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1382,7 +1510,7 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C39" s="4">
         <v>18.0</v>
@@ -1396,6 +1524,9 @@
       <c r="F39" s="6">
         <f t="shared" si="3"/>
         <v>72.45</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1403,7 +1534,7 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="4">
         <v>18.0</v>
@@ -1417,6 +1548,9 @@
       <c r="F40" s="6">
         <f t="shared" si="3"/>
         <v>54</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1424,7 +1558,7 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4">
         <v>19.0</v>
@@ -1438,6 +1572,9 @@
       <c r="F41" s="6">
         <f t="shared" si="3"/>
         <v>16.56</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1445,7 +1582,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" s="4">
         <v>19.0</v>
@@ -1459,6 +1596,9 @@
       <c r="F42" s="6">
         <f t="shared" si="3"/>
         <v>8.685</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1466,7 +1606,7 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" s="4">
         <v>20.0</v>
@@ -1480,6 +1620,9 @@
       <c r="F43" s="6">
         <f t="shared" si="3"/>
         <v>12.6</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1487,7 +1630,7 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" s="4">
         <v>20.0</v>
@@ -1501,6 +1644,9 @@
       <c r="F44" s="6">
         <f t="shared" si="3"/>
         <v>10.8</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1508,7 +1654,7 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" s="4">
         <v>20.0</v>
@@ -1522,6 +1668,9 @@
       <c r="F45" s="6">
         <f t="shared" si="3"/>
         <v>67.905</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -1529,7 +1678,7 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4">
         <v>21.0</v>
@@ -1543,6 +1692,9 @@
       <c r="F46" s="6">
         <f t="shared" si="3"/>
         <v>8.55</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1550,7 +1702,7 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" s="4">
         <v>21.0</v>
@@ -1564,6 +1716,9 @@
       <c r="F47" s="6">
         <f t="shared" si="3"/>
         <v>10.8</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1571,7 +1726,7 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="4">
         <v>22.0</v>
@@ -1585,6 +1740,9 @@
       <c r="F48" s="6">
         <f t="shared" si="3"/>
         <v>22.95</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -1592,7 +1750,7 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" s="4">
         <v>22.0</v>
@@ -1606,6 +1764,9 @@
       <c r="F49" s="6">
         <f t="shared" si="3"/>
         <v>29.475</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -1613,7 +1774,7 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" s="4">
         <v>23.0</v>
@@ -1627,6 +1788,9 @@
       <c r="F50" s="6">
         <f t="shared" si="3"/>
         <v>18</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1634,7 +1798,7 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4">
         <v>23.0</v>
@@ -1648,6 +1812,9 @@
       <c r="F51" s="6">
         <f t="shared" si="3"/>
         <v>14.625</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1655,7 +1822,7 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C52" s="4">
         <v>24.0</v>
@@ -1669,6 +1836,9 @@
       <c r="F52" s="6">
         <f t="shared" si="3"/>
         <v>89.91</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1676,7 +1846,7 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C53" s="4">
         <v>24.0</v>
@@ -1690,6 +1860,9 @@
       <c r="F53" s="6">
         <f t="shared" si="3"/>
         <v>72</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1697,7 +1870,7 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C54" s="4">
         <v>24.0</v>
@@ -1711,6 +1884,9 @@
       <c r="F54" s="6">
         <f t="shared" si="3"/>
         <v>54.72</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -1718,7 +1894,7 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C55" s="4">
         <v>25.0</v>
@@ -1732,6 +1908,9 @@
       <c r="F55" s="6">
         <f t="shared" si="3"/>
         <v>31.905</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1739,7 +1918,7 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C56" s="4">
         <v>25.0</v>
@@ -1753,6 +1932,9 @@
       <c r="F56" s="6">
         <f t="shared" si="3"/>
         <v>35.1</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1760,7 +1942,7 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C57" s="4">
         <v>26.0</v>
@@ -1774,6 +1956,9 @@
       <c r="F57" s="6">
         <f t="shared" si="3"/>
         <v>34.2</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -1781,7 +1966,7 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C58" s="4">
         <v>26.0</v>
@@ -1795,6 +1980,9 @@
       <c r="F58" s="6">
         <f t="shared" si="3"/>
         <v>17.55</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1802,7 +1990,7 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C59" s="4">
         <v>27.0</v>
@@ -1816,6 +2004,9 @@
       <c r="F59" s="6">
         <f t="shared" si="3"/>
         <v>43.425</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -1823,7 +2014,7 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C60" s="4">
         <v>28.0</v>
@@ -1837,6 +2028,9 @@
       <c r="F60" s="6">
         <f t="shared" si="3"/>
         <v>7.65</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -1844,7 +2038,7 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C61" s="4">
         <v>28.0</v>
@@ -1858,6 +2052,9 @@
       <c r="F61" s="6">
         <f t="shared" si="3"/>
         <v>4.5</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1865,7 +2062,7 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C62" s="4">
         <v>29.0</v>
@@ -1879,6 +2076,9 @@
       <c r="F62" s="6">
         <f t="shared" si="3"/>
         <v>23.85</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -1886,7 +2086,7 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C63" s="4">
         <v>29.0</v>
@@ -1900,6 +2100,9 @@
       <c r="F63" s="6">
         <f t="shared" si="3"/>
         <v>26.37</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -1907,7 +2110,7 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C64" s="4">
         <v>7.0</v>
@@ -1921,6 +2124,9 @@
       <c r="F64" s="6">
         <f t="shared" si="3"/>
         <v>17.91</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -1928,7 +2134,7 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C65" s="4">
         <v>12.0</v>
@@ -1942,6 +2148,9 @@
       <c r="F65" s="6">
         <f t="shared" si="3"/>
         <v>29.925</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -1949,7 +2158,7 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C66" s="4">
         <v>2.0</v>
@@ -1963,6 +2172,9 @@
       <c r="F66" s="6">
         <f t="shared" si="3"/>
         <v>9.045</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -1970,7 +2182,7 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C67" s="4">
         <v>2.0</v>
@@ -1984,6 +2196,9 @@
       <c r="F67" s="6">
         <f t="shared" si="3"/>
         <v>17.1</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -1991,7 +2206,7 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C68" s="4">
         <v>16.0</v>
@@ -2005,6 +2220,9 @@
       <c r="F68" s="6">
         <f t="shared" si="3"/>
         <v>54</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -2012,7 +2230,7 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C69" s="4">
         <v>8.0</v>
@@ -2026,6 +2244,9 @@
       <c r="F69" s="6">
         <f t="shared" si="3"/>
         <v>11.25</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -2033,7 +2254,7 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C70" s="4">
         <v>15.0</v>
@@ -2047,6 +2268,9 @@
       <c r="F70" s="6">
         <f t="shared" si="3"/>
         <v>1.8</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -2054,7 +2278,7 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C71" s="4">
         <v>7.0</v>
@@ -2069,13 +2293,16 @@
         <f t="shared" ref="F71:F74" si="4">E71*0.6</f>
         <v>17.4</v>
       </c>
+      <c r="G71" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="3">
         <v>71.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72" s="4">
         <v>15.0</v>
@@ -2090,13 +2317,16 @@
         <f t="shared" si="4"/>
         <v>18.3</v>
       </c>
+      <c r="G72" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="3">
         <v>72.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C73" s="4">
         <v>14.0</v>
@@ -2111,13 +2341,16 @@
         <f t="shared" si="4"/>
         <v>7.08</v>
       </c>
+      <c r="G73" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="3">
         <v>73.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C74" s="4">
         <v>17.0</v>
@@ -2132,13 +2365,16 @@
         <f t="shared" si="4"/>
         <v>0.66</v>
       </c>
+      <c r="G74" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="3">
         <v>74.0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C75" s="4">
         <v>4.0</v>
@@ -2153,13 +2389,16 @@
         <f t="shared" ref="F75:F78" si="5">E75*0.4</f>
         <v>12</v>
       </c>
+      <c r="G75" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="3">
         <v>75.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C76" s="4">
         <v>12.0</v>
@@ -2174,13 +2413,16 @@
         <f t="shared" si="5"/>
         <v>3.1</v>
       </c>
+      <c r="G76" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="3">
         <v>76.0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C77" s="4">
         <v>23.0</v>
@@ -2195,13 +2437,16 @@
         <f t="shared" si="5"/>
         <v>159.6</v>
       </c>
+      <c r="G77" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="3">
         <v>77.0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C78" s="4">
         <v>12.0</v>
@@ -2215,6 +2460,9 @@
       <c r="F78" s="6">
         <f t="shared" si="5"/>
         <v>5.2</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
